--- a/相关数据/题库/epps.tk.xlsx
+++ b/相关数据/题库/epps.tk.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wangyaohui\Desktop\题库\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7215"/>
+    <workbookView xWindow="5820" yWindow="-15" windowWidth="15780" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +33,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>当我的朋友有麻烦时，我喜欢帮助他们。</t>
-  </si>
-  <si>
-    <t>对我所承担的一切事情，我都喜欢尽我最大的努力去做。</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -95,24 +84,15 @@
     <t>我喜欢在日常生活中经验到新奇与改变。</t>
   </si>
   <si>
-    <t>当我认为我的上级做得对时，我喜欢对他们表示我的看法。</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>对我所承担的任何工作，我喜欢对其细节作计划与组织。</t>
-  </si>
-  <si>
     <t>我喜欢遵从指示做我所该做的事。</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>在公共场合中，我喜欢人们注意和评价我的外表。</t>
-  </si>
-  <si>
     <t>我喜欢读伟人的故事。</t>
   </si>
   <si>
@@ -134,12 +114,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>我喜欢探求伟人们对各种我所感兴趣的问题的看  法。</t>
-  </si>
-  <si>
-    <t>假如我必须旅行时，我喜欢把事情先安排好。</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -155,9 +129,6 @@
     <t>我喜欢告诉别人我所经历的冒险与奇特的事情。</t>
   </si>
   <si>
-    <t>我喜欢饮食有规律，并且有固定时间吃东西。</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -179,18 +150,12 @@
     <t>17</t>
   </si>
   <si>
-    <t>我喜欢遵从习俗，并避免做我所尊敬的人认为不合常规的事。</t>
-  </si>
-  <si>
     <t>我喜欢谈我的成就。</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>我喜欢我的生活按排得好，过得顺利，而不用对我的计划作太多的改变。</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -206,9 +171,6 @@
     <t>我喜欢批评权威人士。</t>
   </si>
   <si>
-    <t>我喜欢用些别人不懂其义的字眼。</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -227,33 +189,21 @@
     <t>23</t>
   </si>
   <si>
-    <t>我喜欢将我的信、帐单和其他文件整齐地排列着并以某种系统存档。</t>
-  </si>
-  <si>
     <t>我希望独立决定我所要做的事。</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>我喜欢提出的明知没有人能回答得出来的问题。</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>当我动怒时，我想摔东西。</t>
-  </si>
-  <si>
     <t>我喜欢回避责任与义务。</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>我喜欢将所承担有事办成功。</t>
-  </si>
-  <si>
     <t>我喜欢结交新朋友。</t>
   </si>
   <si>
@@ -293,9 +243,6 @@
     <t>我喜欢解答别人认为困难的谜语与问题。</t>
   </si>
   <si>
-    <t>我喜欢就一个人为什么做去判断他，而不是从他实际上做什么去判断他。</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -308,9 +255,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>我喜欢饮食有规律，并且在固定时间吃东西。</t>
-  </si>
-  <si>
     <t>我喜欢研究与分析别人的行动。</t>
   </si>
   <si>
@@ -320,9 +264,6 @@
     <t>我喜欢说些别人认为机智与聪明的事。</t>
   </si>
   <si>
-    <t>我喜欢将自己放在别人的立场上，看自己若处于相同的情境会有什么感觉。</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -344,57 +285,30 @@
     <t>37</t>
   </si>
   <si>
-    <t>作计划时，我喜欢从其见解为我所敬重的人那里获得些建议。</t>
-  </si>
-  <si>
     <t>我喜欢我的朋友对我仁慈。</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>我喜欢我的朋友的生活安排得好，过得顺利，而不用对我的计划作太多的改变。</t>
-  </si>
-  <si>
-    <t>当我生病时，我喜欢我的朋友感到不安。</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
-    <t>当我受伤或生病时，我喜欢我的朋友小题大作。</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
-    <t>当我沮丧时，我喜欢我的朋友们同情并使我愉快。</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
     <t>我想写一本伟大的小说或剧本。</t>
   </si>
   <si>
-    <t>当作为群众团体的一个成员时，我喜欢被指定或被选为领导者。</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>在团体中，我喜欢接受别人的领导来决定团体该做什么。</t>
-  </si>
-  <si>
-    <t>只要可能，我就喜欢监督与指导别人的行动。</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>我喜欢将我的信、帐单或其他文件整齐地排列着，并依某种系统存档。</t>
-  </si>
-  <si>
     <t>我喜欢成为我所属的机构与团体的领导者之一。</t>
   </si>
   <si>
@@ -419,9 +333,6 @@
     <t>我喜欢在某种职业、专业或专门的项目上成为公认的权威。</t>
   </si>
   <si>
-    <t>每当我做错了事，我感到有罪恶感。</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -431,12 +342,6 @@
     <t>48</t>
   </si>
   <si>
-    <t>对我所承担的任何工作，我喜欢对其细节作好计划与组织。</t>
-  </si>
-  <si>
-    <t>当事情不顺时，我感到我比任何人更该受到责备。</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
@@ -449,15 +354,9 @@
     <t>50</t>
   </si>
   <si>
-    <t>在认为是我的上司的人面前，我感到胆怯。</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>对我所承担的一切事情，我喜欢尽力而为。</t>
-  </si>
-  <si>
     <t>我喜欢帮助比我不幸的人。</t>
   </si>
   <si>
@@ -473,9 +372,6 @@
     <t>53</t>
   </si>
   <si>
-    <t>在处理难题时，我喜欢在开始之前作计划。</t>
-  </si>
-  <si>
     <t>我喜欢为我的朋友做点小事。</t>
   </si>
   <si>
@@ -485,9 +381,6 @@
     <t>我喜欢对别人谈我所经历的冒险与奇特的事。</t>
   </si>
   <si>
-    <t>我喜欢我的朋友信任我，并对我倾诉他们的麻烦。</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -503,9 +396,6 @@
     <t>我喜欢自己能比别人做得更好。</t>
   </si>
   <si>
-    <t>我喜欢在新奇的餐厅里吃饮。</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -518,21 +408,12 @@
     <t>58</t>
   </si>
   <si>
-    <t>在开始工作之前，我喜欢对它做好组织和计划。</t>
-  </si>
-  <si>
     <t>我喜欢旅行和到处观光。</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>在公共场合，我喜欢人们注意和评价我的外表。</t>
-  </si>
-  <si>
-    <t>我喜欢搬家，住到不同的地方。</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -545,36 +426,18 @@
     <t>我喜欢我能自豪地说我解决了一个难题。</t>
   </si>
   <si>
-    <t>对我所承担的事，我喜欢认真去做。</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
-    <t>当我认为我的上司做得对时，我喜欢对他们表示我的看法。</t>
-  </si>
-  <si>
     <t>我喜欢在接受其他事之前完成手头的事。</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>假如我必须旅行时，我喜欢事先计划好。</t>
-  </si>
-  <si>
-    <t>我喜欢继续解我的难题或问题，直到解决为止。</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
-    <t>我有时喜欢做些事情，只为了想看看别人对此事的反应。</t>
-  </si>
-  <si>
-    <t>我喜欢固定于某一职业或问题上，甚至看来它好象没有什么希望。</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -590,9 +453,6 @@
     <t>我喜欢完成具有重大意义的事。</t>
   </si>
   <si>
-    <t>我不在乎与谜人的异性表示亲切。</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -635,15 +495,9 @@
     <t>在团体中我喜欢接受别人的领导来决定团体该做什么。</t>
   </si>
   <si>
-    <t>假如某人罪有应得的话我想公开的进行批评。</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
-    <t>我喜欢我的生活安排得好，过得顺利而不用对我的计划做太多的改变。</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -665,24 +519,15 @@
     <t>我喜欢对我的朋友忠实。</t>
   </si>
   <si>
-    <t>对所有我承担的事，我喜欢尽力做好。</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
     <t>我喜欢观察别人在某些情况下的感觉。</t>
   </si>
   <si>
-    <t>我喜欢我能自豪在说我成功地解决了一件难题。</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
-    <t>当我失败时，我喜欢我的朋友鼓励我。</t>
-  </si>
-  <si>
     <t>我喜欢将所承担的事做得很成功。</t>
   </si>
   <si>
@@ -698,90 +543,51 @@
     <t>80</t>
   </si>
   <si>
-    <t>当发生差错时，我觉得比别人更该受到责备。</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
     <t>我喜欢为我的朋友做事。</t>
   </si>
   <si>
-    <t>作计划时，我喜欢从其见解为我所尊敬的人那里得到些建议。</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
-    <t>我喜欢将自己放在别人的处境上，去想象同样情况下也会有什么感觉。</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
-    <t>当我有问题时，我喜欢被我的朋友同情与了解。</t>
-  </si>
-  <si>
     <t>我喜欢接受我所尊敬的人领导。</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>在郡众团体中，我喜欢被指定或选为领导者。</t>
-  </si>
-  <si>
-    <t>在团体中，我喜欢接受别人的领导来决定团体该怎么做。</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
-    <t>假如我作错了事，我觉得应该受到处罚。</t>
-  </si>
-  <si>
-    <t>我喜欢遵从习俗，避免我所尊敬的我认为不合常规的事。</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
-    <t>在开始做困难的事情之前，我喜欢先做计划。</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
     <t>我喜欢了解我的朋友在面临各种问题时的感觉。</t>
   </si>
   <si>
-    <t>假如我必须旅行，我喜欢先将事情安排好。</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
-    <t>在开始之前，我喜欢将工作组织计划好。</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
     <t>我喜欢被别人看作领导。</t>
   </si>
   <si>
-    <t>我喜欢将我的信、帐单或其他文件整齐地排列着, 并依某种系统存档。</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
     <t>我感到我所受的痛苦与折磨对我而言是好处多于坏处。</t>
   </si>
   <si>
-    <t>我喜欢我的生活安排的好，过得顺利，而不用对我的计划做太多的改变。</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -794,986 +600,1359 @@
     <t>我喜欢探求朋友们的性格并尝试找出他们成为这样的原因。</t>
   </si>
   <si>
-    <t>我有时喜欢做些事情，只是为了想看看别人对它的反应。</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
-    <t>当我受伤或生病时，我喜欢，的朋友小题大作。</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
+    <t>我喜欢成为团体中众目所瞩的对象。</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>在所认定的强者面前我感到胆怯。</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>我比较喜欢与朋友共事而不喜欢独自工作。</t>
+  </si>
+  <si>
+    <t>我不表达我对事情的看法。</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>我喜欢研究与分析他人的行动。</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>我喜欢避免需要依常规做事的场合。</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>我喜欢依我的方式办事不管别人的想法。</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>我觉得处处不如人。</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>我喜欢将我所承担的事办成功。</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>我喜欢分析我自己的动机与情感。</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>我喜欢与朋友有深交。</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>我喜欢分析我自己的动机与感情。</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>我喜欢接受我所尊敬的人的领导。</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>我喜欢我的朋友们高兴地为我办点小事。</t>
+  </si>
+  <si>
+    <t>我喜欢从人们为什么那样做而不从他实际做什么来判断人。</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>我喜欢预测我的朋友们在各种情况下的反应。</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>我喜欢分析他人的感情与动机。</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>我喜欢我的朋友们对我有深情。</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>我觉得我必须承认自己做错了的事。</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>我喜欢与朋友们共事而不喜欢独自进行工作。</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>我喜欢能说服与影响其他人去做我想做的事。</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>我喜欢问我明知没有人回答得出来的问题。</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>我喜欢加入一个成员之间彼此温暖与友善的团体。</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>我喜欢分析别人的感情与动机。</t>
+  </si>
+  <si>
+    <t>由于自己无能处理各种情况使我感到沮丧。</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>我喜欢我能够说服与影响他人做我想做的事。</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>我喜欢加入在成员之间彼此具有温暖与友善感情的团体。</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>我喜欢分析我的动机与情感。</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>我喜欢待人仁慈与同情。</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>我喜欢成为我所属机构与团体的领导之一。</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>我觉得我所受的痛苦与不幸是好处多于坏处。</t>
+  </si>
+  <si>
+    <t>我喜欢对我的朋友表示自己的深情。</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>我喜欢与朋友共事而不喜欢独立工作。</t>
+  </si>
+  <si>
+    <t>我喜欢试验与尝试新东西。</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>我喜欢那些原来不熟悉的人。</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>我喜欢在日常生活中经历新鲜与变迁。</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>我喜欢搬家住到不同的地方。</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>我喜欢为我的朋友办事。</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>我喜欢熬夜将工作完成。</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>我喜欢被别人当作领导。</t>
+  </si>
+  <si>
+    <t>我喜欢长时间地工作而不受别人干扰。</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>我喜欢与迷人的异性约会。</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>我喜欢预测我的朋友在各种情况下的行动。</t>
+  </si>
+  <si>
+    <t>我喜欢参与有关性与性行为的讨论。</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>我喜欢变得性兴奋。</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>我喜欢参与有性的社交场合。</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>我为自己无力处理各种情况感到沮丧。</t>
+  </si>
+  <si>
+    <t>我喜欢看以性为主题的书与剧本。</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>我喜欢预测我的朋友们在各种情况下将怎样做。</t>
+  </si>
+  <si>
+    <t>我喜欢攻击与我观点相反的看法。</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>我喜欢告诉别人如何做他们的工作。</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>我感到我处处不如人。</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>我喜欢完成某些具有重大意义的事。</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>对我所承担的事我希望能够做成功。</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>我喜欢看报上有关谋杀与其他形式的暴力新闻。</t>
+  </si>
+  <si>
+    <t>我想写本伟大的小说或剧本。</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>我喜欢为我的朋友们做点小事。</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>我喜欢在日常生活中经历新奇与变异。</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>我喜欢接受我所仰慕的人领导。</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>我喜欢交新朋友。</t>
+  </si>
+  <si>
+    <t>我希望我的一切作品都是严密、整齐而有条理的。</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>我喜欢将我开了头的事情或工作完成。</t>
+  </si>
+  <si>
+    <t>我喜欢使我的书桌与工作间保持清洁与整齐。</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>我喜欢被别人认为身材迷人。</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>我喜欢告诉别人我对他们的看法。</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>我喜欢对我的朋友表示深情。</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>我有时想做一些事情的目的只为了想看别人对它的反应。</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>在公共场合中我喜欢人注意我和评价我的外表。</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>我喜欢问些明知没人能回答的问题。</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>我喜欢说我对事情的看法。</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>我喜欢在新奇的餐厅吃饭。</t>
+  </si>
+  <si>
+    <t>我喜欢做些别人认为不合常规的事。</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>我喜欢对我的朋友们忠实。</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>我喜欢做些新鲜的事。</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>我喜欢参与那些成员之间具有温暖与友善情感的团体。</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>我喜欢给朋友写信。</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>我喜欢观察别人在某一情况下的感觉。</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>我喜欢将自己放在别人的立场来想象在同样的情况下我会有什么感觉。</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>我喜欢预测我的朋友们在各种情况下会怎么做。</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>我喜欢研究分析别人的行为。</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>我喜欢取笑那些我觉得是做了蠢事的人。</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>我喜欢试验与尝试新的事情。</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>我喜欢被异性认为身材迷人。</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>我喜欢对我的朋友们有深情。</t>
+  </si>
+  <si>
+    <t>我喜欢被人当作领导。</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>我喜欢尝试新的工作而不愿一直做同样的老事情。</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>我喜欢我能够说服与影响别人做我所要做的事。</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>我喜欢参与有关性行为的讨论。</t>
+  </si>
+  <si>
+    <t>我愿意被人们叫去做和事佬。</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>我喜欢告诉别人怎么去做他的工作。</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>我喜欢对我的朋友们表示深情。</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>我觉得我必须承认有些事我做错了。</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>我觉得我处处不如人。</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>我喜欢做新的和各不相同的事。</t>
+  </si>
+  <si>
+    <t>我喜欢待人仁慈和同情。</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>我喜欢参与有异性的社交场合。</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>我喜欢我的朋友们信任我并告诉我他们的问题。</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>我喜欢旅行到各处看看。</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>我喜欢追求新潮流与时髦。</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>我不在乎与迷人的异性表示亲近。</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>我喜欢将我开了头的任何事情或工作完成。</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>我喜欢长时间地工作而不受干扰。</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>我喜欢持续地解难题直到解出为止。</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>我喜欢与异性谈恋爱。</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>我喜欢为我的朋友们办点小事。</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>我喜欢见到不熟识的人。</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>我喜欢持续解难题直到解出为止。</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>我喜欢谈论我的成就。</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>我想取笑那些我认为是做了蠢事的人。</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>我喜欢提出明知没有人能回答得出来的问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢将所有承担的事办成功。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如某人罪有应得的话我想公开地进行批评。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢用些别人不懂其意的字眼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢被人们叫去做和事佬。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我知道自己做错了事时会感到内疚。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢探求伟人们对各种我所感兴趣的问题的看法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢称赞我所仰慕的人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢将我的信、账单和其他文件整齐地排列着并以某种系统存档。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢在新奇的餐厅里饮食。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不在乎与迷人的异性表示亲切。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢尝试新的工作而不喜欢一直做同样的老事情。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢照我自己的方式来做而不管别人有什么看法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我的朋友有麻烦时,我喜欢帮助他们。</t>
+  </si>
+  <si>
+    <t>对我所承担的一切事情,我都喜欢尽我最大的努力去做。</t>
+  </si>
+  <si>
+    <t>当我认为我的上级做得对时,我喜欢对他们表示我的看法。</t>
+  </si>
+  <si>
+    <t>对我所承担的任何工作,我喜欢对其细节做计划与组织。</t>
+  </si>
+  <si>
+    <t>在公共场合中,我喜欢人们注意和评价我的外表。</t>
+  </si>
+  <si>
+    <t>假如我必须旅行时,我喜欢把事情先安排好。</t>
+  </si>
+  <si>
+    <t>我喜欢饮食有规律,并且有固（在）定时间吃东西。</t>
+  </si>
+  <si>
+    <t>我喜欢遵从习俗,并避免做我所尊敬的人认为不合常规的事。</t>
+  </si>
+  <si>
+    <t>我喜欢我的生活安排得好,过得顺利,而不用对我的计划作太多的改变。</t>
+  </si>
+  <si>
+    <t>当我动怒时,我想摔东西。</t>
+  </si>
+  <si>
+    <t>我喜欢就一个人为什么做去判断他,而不是从他实际上做什么去判断他。</t>
+  </si>
+  <si>
+    <t>我喜欢饮食有规律,并且在固定时间吃东西。</t>
+  </si>
+  <si>
+    <t>我喜欢将自己放在别人的立场上,看自己若处于相同的情境会有什么感觉。</t>
+  </si>
+  <si>
+    <t>做计划时,我喜欢从其见解为我所敬重的人那里获得些建议。</t>
+  </si>
+  <si>
+    <t>我喜欢我的朋友的生活安排得好,过得顺利,而不用对我的计划做太多得改变。</t>
+  </si>
+  <si>
+    <t>当我生病时,我喜欢我的朋友感到不安。</t>
+  </si>
+  <si>
+    <t>当我受伤或生病时,我喜欢我的朋友小题大做。</t>
+  </si>
+  <si>
+    <t>当我沮丧时,我喜欢我的朋友们同情并使我愉快。</t>
+  </si>
+  <si>
+    <t>当作为群众团体的一个成员时,我喜欢被指定或被选为领导者。</t>
+  </si>
+  <si>
+    <t>在团体中,我喜欢接受别人的领导来决定团体该做什么。</t>
+  </si>
+  <si>
+    <t>只要可能,我就喜欢监督与指导别人的行动。</t>
+  </si>
+  <si>
+    <t>我喜欢将我的信、账单或其他文件整齐地排列着,并依某种系统存档。</t>
+  </si>
+  <si>
+    <t>每当我做错了事,我感到有罪恶感。</t>
+  </si>
+  <si>
+    <t>对我所承担的任何工作,我喜欢对其细节作好计划与组织。</t>
+  </si>
+  <si>
+    <t>当事情不顺时,我感到我比任何人更该受到责备。</t>
+  </si>
+  <si>
+    <t>在认为是我的上司的人面前,我感到胆怯。</t>
+  </si>
+  <si>
+    <t>对我所承担的一切事情,我喜欢尽力而为。</t>
+  </si>
+  <si>
+    <t>在处理难题时,我喜欢在开始之前做计划。</t>
+  </si>
+  <si>
+    <t>我喜欢我的朋友信任我,并对我倾诉他们的麻烦。</t>
+  </si>
+  <si>
+    <t>在开始工作之前,我喜欢对它做好组织和计划。</t>
+  </si>
+  <si>
+    <t>在公共场合,我喜欢人们注意和评价我的外表。</t>
+  </si>
+  <si>
+    <t>我喜欢搬家,住到不同的地方。</t>
+  </si>
+  <si>
+    <t>对我所承担的事,我喜欢认真去做。</t>
+  </si>
+  <si>
+    <t>当我认为我的上司做得对时,我喜欢对他们表示我的看法。</t>
+  </si>
+  <si>
+    <t>假如我必须旅行时,我喜欢事先计划好。</t>
+  </si>
+  <si>
+    <t>我喜欢继续解我的难题或问题,直到解决为止。</t>
+  </si>
+  <si>
+    <t>我喜欢固定于某一职业或问题上,甚至看来它（它看来）好像没有什么希望。</t>
+  </si>
+  <si>
+    <t>我喜欢我的生活安排得好,过得顺利而不用对我的计划做太多的改变。</t>
+  </si>
+  <si>
+    <t>对所有我承担的事,我喜欢尽力做好。</t>
+  </si>
+  <si>
+    <t>当我失败时,我喜欢我的朋友鼓励我。</t>
+  </si>
+  <si>
+    <t>当发生差错时,我觉得比别人更该受到责备。</t>
+  </si>
+  <si>
+    <t>做计划时,我喜欢从其见解为我所尊敬的人那里得到些建议。</t>
+  </si>
+  <si>
+    <t>我喜欢将自己放在别人的处境上,去想象同样情况下也会有什么感觉。</t>
+  </si>
+  <si>
+    <t>当我有问题时,我喜欢被我的朋友同情与了解。</t>
+  </si>
+  <si>
+    <t>在群众团体中,我喜欢被指定或选为领导者。</t>
+  </si>
+  <si>
+    <t>在团体中,我喜欢接受别人的领导来决定团体该怎么做。</t>
+  </si>
+  <si>
+    <t>假如我做错了事,我觉得应该受到处罚。</t>
+  </si>
+  <si>
+    <t>在开始做困难的事情之前,我喜欢先做计划。</t>
+  </si>
+  <si>
+    <t>假如我必须旅行,我喜欢先将事情安排好。</t>
+  </si>
+  <si>
+    <t>在开始之前,我喜欢将工作组织计划好。</t>
+  </si>
+  <si>
+    <t>我喜欢将我的信、账单或其他文件整齐地排列着, 并依某种系统存档。</t>
+  </si>
+  <si>
+    <t>我喜欢我的生活安排的好,过得顺利,而不用对我的计划做太多的改变。</t>
+  </si>
+  <si>
+    <t>我有时喜欢做些事情,只是为了想看看别人对它的反应。</t>
+  </si>
+  <si>
+    <t>当我生病时,我喜欢朋友们为我感伤。</t>
+  </si>
+  <si>
+    <t>只要可能,我喜欢监督与指导别人的行为。</t>
+  </si>
+  <si>
+    <t>当我遇困难时,我喜欢我的朋友帮助我。</t>
+  </si>
+  <si>
+    <t>当我的观点被冲击时,我喜欢为之辩护。</t>
+  </si>
+  <si>
+    <t>每当我做错事时,我感到内疚。</t>
+  </si>
+  <si>
+    <t>大家在一起时,我喜欢决定人们该做什么。</t>
+  </si>
+  <si>
+    <t>当我有麻烦时,我喜欢我的朋友帮助我。</t>
+  </si>
+  <si>
+    <t>我喜欢将我的生活安排好,过得顺利,而不用对我的计划做太大的改变。</t>
+  </si>
+  <si>
+    <t>当我生病时,我喜欢我的朋友们为我感伤。</t>
+  </si>
+  <si>
+    <t>当我沮丧时,我喜欢我的朋友们同情我,并使我愉快。</t>
+  </si>
+  <si>
+    <t>当我的观点被攻击时,我喜欢为之辩护。</t>
+  </si>
+  <si>
+    <t>我喜欢观察我的朋友们的性格,试着找出究竟是什么缘故使他们成为现在这样。</t>
+  </si>
+  <si>
+    <t>当我沮丧时我喜欢我的朋友同情我,并使我愉快。</t>
+  </si>
+  <si>
+    <t>在团体中,我喜欢决定我们该做什么。</t>
+  </si>
+  <si>
+    <t>在我所认定的强者面前,我感到胆怯。</t>
+  </si>
+  <si>
+    <t>只要我能够的话,我喜欢监督与指导别人的行动。</t>
+  </si>
+  <si>
+    <t>当我退让与避免争执时,我感到比争取达到目的还好些。</t>
+  </si>
+  <si>
+    <t>在我认为是自己的人面前,我感到胆怯。</t>
+  </si>
+  <si>
+    <t>当我的朋友们有麻烦时,我喜欢帮助他们。</t>
+  </si>
+  <si>
+    <t>当我的朋友们受伤时,我喜欢同情他们。</t>
+  </si>
+  <si>
+    <t>当我朋友受伤或生病时,我喜欢同情他们。</t>
+  </si>
+  <si>
+    <t>我喜欢思索我的朋友们的性格,探讨为什么他们像现在这样。</t>
+  </si>
+  <si>
+    <t>我喜欢尝试新的职业,而不喜欢一直做同样的老事情。</t>
+  </si>
+  <si>
+    <t>当我有问题时,我喜欢我的朋友们能同情与了解。</t>
+  </si>
+  <si>
+    <t>当我退让避免了争执时,我感到比照自己的方式做还好些。</t>
+  </si>
+  <si>
+    <t>当我有功课要做时,我喜欢及时做并一直工作至完成为止。</t>
+  </si>
+  <si>
+    <t>当我工作时,我喜欢避开干扰。</t>
+  </si>
+  <si>
+    <t>假如我做错了事的话,我觉得我应受责备。</t>
+  </si>
+  <si>
+    <t>我喜欢坚持我的职业与方向,甚至看来好像没什么进展时,我也不在乎。</t>
+  </si>
+  <si>
+    <t>在一群人中,我喜欢由我决定该做什么。</t>
+  </si>
+  <si>
+    <t>当我受伤或生病时,我喜欢我的朋友们为我小题大做。</t>
+  </si>
+  <si>
+    <t>当事情不顺时,我想责怪别人。</t>
+  </si>
+  <si>
+    <t>当有人侮辱我时,我想报复。</t>
+  </si>
+  <si>
+    <t>当我不赞同他们的看法时,我喜欢说服他们。</t>
+  </si>
+  <si>
+    <t>对我所承担的事,我喜欢尽力而为。</t>
+  </si>
+  <si>
+    <t>对我所承担的一切事情,我喜欢认真去做。</t>
+  </si>
+  <si>
+    <t>做计划时,我喜欢我所敬重的人给我提出些建议。</t>
+  </si>
+  <si>
+    <t>当我认为我的上司做的对时,我喜欢对他们表示我的看法。</t>
+  </si>
+  <si>
+    <t>在做困难的事之前,我喜欢做个计划。</t>
+  </si>
+  <si>
+    <t>对我所承担的任何事,我喜欢巨细无遗地进行计划与组织。</t>
+  </si>
+  <si>
+    <t>我喜欢饮食有规律,并在固定的时间吃东西。</t>
+  </si>
+  <si>
+    <t>我喜欢坚持自己的工作与方向,即使看来好像已进入了无底深渊,我也不在乎。</t>
+  </si>
+  <si>
+    <t>当我的朋友们受伤或生病时,我喜欢对他们表示同情。</t>
+  </si>
+  <si>
+    <t>在承担其他事之前,我喜欢每次只做一件事并将它完成。</t>
+  </si>
+  <si>
+    <t>当我的朋友们有困难时,我喜欢帮助他们。</t>
+  </si>
+  <si>
+    <t>当我有功课要做时,我喜欢即时开始并持续到工作完成为止。</t>
+  </si>
+  <si>
+    <t>对有时伤害我的朋友,我喜欢原谅他们。</t>
+  </si>
+  <si>
+    <t>当我失败时,我喜欢我的朋友们鼓励我。</t>
+  </si>
+  <si>
+    <t>我喜欢持续地了解谜语与问题,直到解决为止。</t>
+  </si>
+  <si>
+    <t>假如某人是罪有应得,我会公开批评他。</t>
+  </si>
+  <si>
+    <t>当我受伤或生病时,我喜欢我的朋友们小题大做。</t>
+  </si>
+  <si>
+    <t>在群众团体中,我喜欢被指定或被选为领导。</t>
+  </si>
+  <si>
+    <t>对我起了头的一切事情,我都喜欢将它完成。</t>
+  </si>
+  <si>
+    <t>当事情有差错时,我觉得我比任何人都更该受到责备。</t>
+  </si>
+  <si>
+    <t>我喜欢搬家,住在不同的地方。</t>
+  </si>
+  <si>
+    <t>当我做错事时,我觉得我该受到处罚。</t>
+  </si>
+  <si>
+    <t>我喜欢坚持自己的工作或方向,甚至当它们看来好像已使我陷入无底深渊时,我也不在乎。</t>
+  </si>
+  <si>
+    <t>当我有功课做时,我喜欢及时开始并一直做到完成为止。</t>
+  </si>
+  <si>
+    <t>我喜欢遵照习俗,避免做人家认为不合常规的事。</t>
+  </si>
+  <si>
+    <t>对我所承担的一切事情,  我喜欢认真去做。</t>
+  </si>
+  <si>
+    <t>当我不赞同他人的意见时,我想指责别人。</t>
+  </si>
+  <si>
+    <t>假如我必须旅行的话,我喜欢先将事情安排好。</t>
+  </si>
+  <si>
+    <t>在承担别的事之前,我喜欢将现在的工作或任务完成。</t>
+  </si>
+  <si>
+    <t>当我工作时,我喜欢避免干扰。</t>
+  </si>
+  <si>
+    <t>我喜欢我的朋友们信任我,并告诉我他们的麻烦。</t>
+  </si>
+  <si>
+    <t>假如某人罪有应得,我会公开批评他。</t>
+  </si>
+  <si>
+    <t>当我不赞同别人的看法,我想责怪他们。</t>
+  </si>
+  <si>
+    <t>当有人做了我认为很愚蠢的事情时,我想取笑他们。</t>
+  </si>
+  <si>
+    <r>
+      <t>我有时喜欢做些事情,只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为了想看看别人对此事的反应。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别人认为不合常规的事。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢我能自豪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说我成功地解决了一件难题。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>我喜欢告诉别人该怎么做他们的工作。</t>
   </si>
   <si>
-    <t>我喜欢成为团体中众目所瞩的对象。</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>在所认定的强者面前我感到胆怯。</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>我比较喜欢与朋友共事而不喜欢独自工作。</t>
-  </si>
-  <si>
-    <t>我不表达我对事情的看法。</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>我喜欢研究与分析他人的行动。</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>当我生病时，我喜欢朋友们为我感伤。</t>
-  </si>
-  <si>
-    <t>我喜欢避免需要依常规做事的场合。</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>只要可能，我喜欢监督与指导别人的行为。</t>
-  </si>
-  <si>
-    <t>我喜欢依我的方式办事不管别人的想法。</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>我觉得处处不如人。</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>我喜欢将我所承担的事办成功。</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>我喜欢分析我自己的动机与情感。</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>当我遇困难时，我喜欢我的朋友帮助我。</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>当我的观点被冲击时，我喜欢为之辩护。</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>每当我做错事时，我感到内疚。</t>
-  </si>
-  <si>
-    <t>我喜欢与朋友有深交。</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>我喜欢分析我自己的动机与感情。</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>我喜欢接受我所尊敬的人的领导。</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>我喜欢我的朋友们高兴地为我办点小事。</t>
-  </si>
-  <si>
-    <t>我喜欢从人们为什么那样做而不从他实际做什么来判断人。</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>大家在一起时，我喜欢决定人们该做什么。</t>
-  </si>
-  <si>
-    <t>我喜欢预测我的朋友们在各种情况下的反应。</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>当我退让或避免了冲突时，我觉得比争取达到目标的还好些。</t>
-  </si>
-  <si>
-    <t>我喜欢分析他人的感情与动机。</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>当我有麻烦时，我喜欢我的朋友帮助我。</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>我喜欢我的朋友们对我有深情。</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>我喜欢将我的生活安排好，过得顺利，而不用对我的计划作太大的改变。</t>
-  </si>
-  <si>
-    <t>当我生病时，我喜欢我的朋友们为我感伤。</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>我喜欢被人们叫去作和事佬。</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>我觉得我必须承认自己做错了的事。</t>
-  </si>
-  <si>
-    <t>当我沮丧时，我喜欢我的朋友们同情我，并使我愉快。</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>我喜欢与朋友们共事而不喜欢独自进行工作。</t>
-  </si>
-  <si>
-    <t>当我的观点被攻击时，我喜欢为之辩护。</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>我喜欢观察我的朋友们的性格，试着找出究竟是什么缘故使他们成为现在这样。</t>
-  </si>
-  <si>
-    <t>我喜欢能说服与影响其他人去做我想做的事。</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>当我沮丧时我喜欢我的朋友同情我，并使我愉快。</t>
-  </si>
-  <si>
-    <t>在团体中，我喜欢决定我们该做什么。</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>我喜欢问我明知没有人回答得出来的问题。</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>在我所认定的强者面前，我感到胆怯。</t>
-  </si>
-  <si>
-    <t>只要我能够的话，我喜欢监督与指导别人的行动。</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>我喜欢加入一个成员之间彼此温暖与友善的团体。</t>
-  </si>
-  <si>
-    <t>我知道自己作错了事时会感到内疚。</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>我喜欢分析别人的感情与动机。</t>
-  </si>
-  <si>
-    <t>由于自己无能处理各种情况使我感到沮丧。</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>当我退让与避免争执时，我感到比争取达到目的还好些。</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>我喜欢我能够说服与影响他人做我想做的事。</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>在我认为是自己的人面前，我感到胆怯。</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>我喜欢加入在成员之间彼此具有温暖与友善感情的团体。</t>
-  </si>
-  <si>
-    <t>当我的朋友们有麻烦时，我喜欢帮助他们。</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>我喜欢分析我的动机与情感。</t>
-  </si>
-  <si>
-    <t>当我的朋友们受伤时，我喜欢同情他们。</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>我喜欢待人仁慈与同情。</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>我喜欢成为我所属机构与团体的领导之一。</t>
-  </si>
-  <si>
-    <t>当我朋友受伤或生病时，我喜欢同情他们。</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>我觉得我所受的痛苦与不幸是好处多于坏处。</t>
-  </si>
-  <si>
-    <t>我喜欢对我的朋友表示自己的深情。</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>我喜欢与朋友共事而不喜欢独立工作。</t>
-  </si>
-  <si>
-    <t>我喜欢试验与尝试新东西。</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>我喜欢思索我的朋友们的性格，探讨为什么他们象现在这样。</t>
-  </si>
-  <si>
-    <t>我喜欢尝试新的职业，而不喜欢一直做同样的老事情。</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>当我有问题时，我喜欢我的朋友们能同情与了解。</t>
-  </si>
-  <si>
-    <t>我喜欢那些原来不熟悉的人。</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>我喜欢在日常生活中经历新鲜与变迁。</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>当我退让避免了争执时，我感到比照自己的方式做还好些。</t>
-  </si>
-  <si>
-    <t>我喜欢搬家住到不同的地方。</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>我喜欢为我的朋友办事。</t>
-  </si>
-  <si>
-    <t>当我有功课要做时，我喜欢及时做并一直工作至完成为止。</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>当我工作时，我喜欢避开干扰。</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>我喜欢熬夜将工作完成。</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>我喜欢被别人当作领导。</t>
-  </si>
-  <si>
-    <t>我喜欢长时间地工作而不受别人干扰。</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>假如我做错了事的话，我觉得我应受责备。</t>
-  </si>
-  <si>
-    <t>我喜欢坚持我的职业与方向，甚至看来好象没什么进展时，我也不在乎。</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>我喜欢与迷人的异性约会。</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>我喜欢预测我的朋友在各种情况下的行动。</t>
-  </si>
-  <si>
-    <t>我喜欢参与有关性与性行为的讨论。</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>我喜欢变得性兴奋。</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>在一群人中，我喜欢由我决定该做什么。</t>
-  </si>
-  <si>
-    <t>我喜欢参与有性的社交场合。</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>我为自己无力处理各种情况感到沮丧。</t>
-  </si>
-  <si>
-    <t>我喜欢看以性为主题的书与剧本。</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>我喜欢看报上有关谋杀与其他暴力方面的新闻。</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>我喜欢预测我的朋友们在各种情况下将怎样做。</t>
-  </si>
-  <si>
-    <t>我喜欢攻击与我观点相反的看法。</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>当我受伤或生病时，我喜欢我的朋友们为我小题大作。</t>
-  </si>
-  <si>
-    <t>当事情不顺时，我想责怪别人。</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>我喜欢告诉别人如何做他们的工作。</t>
-  </si>
-  <si>
-    <t>当有人侮辱我时，我想报复。</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>我感到我处处不如人。</t>
-  </si>
-  <si>
-    <t>当我不赞同他们的看法时，我喜欢说服他们。</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>对我所承担的事，我喜欢尽力而为。</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>对我所承担的一切事情，我喜欢认真去做。</t>
-  </si>
-  <si>
-    <t>我喜欢完成某些具有重大意义的事。</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>对我所承担的事我希望能够做成功。</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>我喜欢看报上有关谋杀与其他形式的暴力新闻。</t>
-  </si>
-  <si>
-    <t>我想写本伟大的小说或剧本。</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>我喜欢为我的朋友们做点小事。</t>
-  </si>
-  <si>
-    <t>作计划时，我喜欢我所敬重的人给我提出些建议。</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>我喜欢在日常生活中经历新奇与变异。</t>
-  </si>
-  <si>
-    <t>当我认为我的上司做的对时，我喜欢对他们表示我的看法。</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>我增欢称赞我所仰慕的人。</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>我喜欢接受我所仰慕的人领导。</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>在做困难的事之前，我喜欢作个计划。</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>我喜欢交新朋友。</t>
-  </si>
-  <si>
-    <t>我希望我的一切作品都是严密、整齐而有条理的。</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>我喜欢将我开了头的事情或工作完成。</t>
-  </si>
-  <si>
-    <t>我喜欢使我的书桌与工作间保持清洁与整齐。</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>我喜欢被别人认为身材迷人。</t>
-  </si>
-  <si>
-    <t>对我所承担的任何事，我喜欢巨细无遗地进行计划与组织。</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>我喜欢告诉别人我对他们的看法。</t>
-  </si>
-  <si>
-    <t>我喜欢饮食有规律，并在固定的时间吃东西。</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>我喜欢对我的朋友表示深情。</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>我喜欢尝试新的工作而不喜欢一直做同样的老事  情。</t>
-  </si>
-  <si>
-    <t>我有时想做一些事情的目的只为了想看别人对它的反应。</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>我喜欢坚持自己的工作与方向，即使看来好象已进入了无底深渊，我也不在乎。</t>
-  </si>
-  <si>
-    <t>在公共场合中我喜欢人注意我和评价我的外表。</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>在团体中，我喜欢成为众人所注目的对象。</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>我喜欢问些明知没人能回答的问题。</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>当我的朋友们受伤或生病时，我喜欢对他们表示同情。</t>
-  </si>
-  <si>
-    <t>我喜欢说我对事情的看法。</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>我喜欢在新奇的餐厅吃饭。</t>
-  </si>
-  <si>
-    <t>我喜欢做些别人认为不合常规的事。</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>在承担其他事之前，我喜欢每次只作一件事并将它完成。</t>
-  </si>
-  <si>
-    <t>我喜欢能自如地做我想作的事。</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>我喜欢照我自己的方式来做而不管别人有什么看  法。</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>当我的朋友们有困难时，我喜欢帮助他们。</t>
-  </si>
-  <si>
-    <t>我喜欢对我的朋友们忠实。</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>我喜欢做些新鲜的事。</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>当我有功课要做时，我喜欢即时开始并持续到工作完成为止。</t>
-  </si>
-  <si>
-    <t>我喜欢参与那些成员之间具有温暖与友善情感的团体。</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>我喜欢给朋友写信。</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>我喜欢观察别人在某一情况下的感觉。</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>我喜欢将自己放在别人的立场来想象在同样的情况下我会有什么感觉。</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>我喜欢预测我的朋友们在各种情况下会怎么做。</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>我喜欢研究分析别人的行为。</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>我喜欢取笑那些我觉得是做了蠢事的人。</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>对有时伤害我的朋友，我喜欢原谅他们。</t>
-  </si>
-  <si>
-    <t>当我失败时，我喜欢我的朋友们鼓励我。</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>我喜欢试验与尝试新的事情。</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>我喜欢持续地了解迷语与问题,直到解决为止。</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>我喜欢被异性认为身材迷人。</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>假如某人是罪有应得，我会公开批评他。</t>
-  </si>
-  <si>
-    <t>当我受伤或生病时，我喜欢我的朋友们小题大作。</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>我喜欢对我的朋友们有深情。</t>
-  </si>
-  <si>
-    <t>我喜欢被人当作领导。</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>我喜欢尝试新的工作而不愿一直做同样的老事情。</t>
-  </si>
-  <si>
-    <t>在群众团体中，我喜欢被指定或被选为领导。</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>对我起了头的一切事情，我都喜欢将它完成。</t>
-  </si>
-  <si>
-    <t>我喜欢我能够说服与影响别人做我所要做的事。</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>我喜欢参与有关性行为的讨论。</t>
-  </si>
-  <si>
-    <t>我愿意被人们叫去做和事佬。</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>我喜欢告诉别人怎么去做他的工作。</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>我喜欢对我的朋友们表示深情。</t>
-  </si>
-  <si>
-    <t>当事情有差错时，我觉得我比任何人都更该受到责备。</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>我喜欢搬家，住在不同的地方。</t>
-  </si>
-  <si>
-    <t>当我做错事时，我觉得我该受到处罚。</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>我喜欢坚持自己的工作或方向，甚至当它们看来好象已使我陷入无底深渊时，我也不在乎。</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>我觉得我必须承认有些事我做错了。</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>我觉得我处处不如人。</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>我喜欢做新的和各不相同的事。</t>
-  </si>
-  <si>
-    <t>我喜欢待人仁慈和同情。</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>当我有功课做时，我喜欢及时开始并一直做到完成为止。</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>我喜欢参与有异性的社交场合。</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>我喜欢我的朋友们信任我并告诉我他们的问题。</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>我喜欢旅行到各处看看。</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>我喜欢遵照习俗，避免做人家认为不合常规的事。</t>
-  </si>
-  <si>
-    <t>我喜欢追求新潮流与时髦。</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>对我所承担的一切事情，  我喜欢认真去做。</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>我不在乎与迷人的异性表示亲近。</t>
-  </si>
-  <si>
-    <t>我喜欢试验与尝试的事情。</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>当我不赞同他人的意见时，我想指责别人。</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>我喜欢将我开了头的任何事情或工作完成。</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>我喜欢长时间地工作而不受干扰。</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>假如我必须旅行的话，我喜欢先将事情安排好。</t>
-  </si>
-  <si>
-    <t>我喜欢持续地解难题直到解出为止。</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>我喜欢与异性谈恋爱。</t>
-  </si>
-  <si>
-    <t>在承担别的事之前，我喜欢将现在的工作或任务完成。</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>当我工作时，我喜欢避免干扰。</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>我喜欢为我的朋友们办点小事。</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>我喜欢见到不熟识的人。</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>我喜欢持续解难题直到解出为止。</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>我喜欢谈论我的成就。</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>我想取笑那些我认为是做了蠢事的人。</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>我喜欢我的朋友们信任我，并告诉我他们的麻烦。</t>
-  </si>
-  <si>
-    <t>我喜欢报上有关谋杀与其它形式暴力的新闻。</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>假如某人罪有应得，我会公开批评他。</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>当我不赞同别人的看法，我想责怪他们。</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>我喜欢听说以性为主的笑话。</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>当有人做了我认为很愚蠢的事情时，我想取笑他  们。</t>
+    <t>我喜欢结交新朋友。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当我退让或避免了冲突时,我觉得比争取达到目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还好些。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢看报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上有关谋杀与其他暴力方面的新闻。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在团体中,我喜欢成为众人所瞩目的对象。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢能自如地做我想做的事。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢试验与尝试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的事情。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上有关谋杀与其它形式暴力的新闻。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢听</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说以性为主的笑话。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1786,6 +1965,7 @@
       <sz val="10"/>
       <color indexed="72"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1794,6 +1974,26 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="72"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1821,11 +2021,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1889,7 +2104,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1924,7 +2139,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2101,7 +2316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2111,11 +2326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C226"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="52.25" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -2133,2478 +2352,2479 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>451</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>452</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>455</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>456</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>435</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>436</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>459</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>461</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>462</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>467</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>471</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>474</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>475</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>477</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>478</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>178</v>
+        <v>482</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>182</v>
+        <v>138</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>203</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>213</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>167</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>224</v>
+        <v>488</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>227</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>229</v>
+        <v>490</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>175</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>231</v>
+        <v>491</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>234</v>
+        <v>492</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>235</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>494</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>238</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>240</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>243</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>245</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>248</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>251</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>256</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>258</v>
+        <v>464</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>572</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>196</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>60</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>270</v>
+        <v>203</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>502</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>282</v>
+        <v>503</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>284</v>
+        <v>504</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>286</v>
+        <v>505</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>299</v>
+        <v>226</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>76</v>
+        <v>573</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>302</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>307</v>
+        <v>231</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>309</v>
+        <v>439</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>312</v>
+        <v>510</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>317</v>
+        <v>512</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>320</v>
+        <v>513</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>321</v>
+        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>325</v>
+        <v>242</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>326</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>307</v>
+        <v>248</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>334</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>338</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>344</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>302</v>
+        <v>507</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>349</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>355</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>357</v>
+        <v>522</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>358</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>365</v>
+        <v>525</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>369</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>371</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>372</v>
+        <v>276</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>376</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>377</v>
+        <v>281</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>379</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>383</v>
+        <v>285</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>384</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>387</v>
+        <v>289</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>388</v>
+        <v>530</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>394</v>
+        <v>69</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>399</v>
+        <v>531</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>400</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>403</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>405</v>
+        <v>302</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>407</v>
+        <v>303</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>408</v>
+        <v>535</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>410</v>
+        <v>536</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>414</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>415</v>
+        <v>309</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>420</v>
+        <v>537</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>423</v>
+        <v>538</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>427</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>428</v>
+        <v>319</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>403</v>
+        <v>533</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>119</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>430</v>
+        <v>539</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>431</v>
+        <v>321</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>432</v>
+        <v>322</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>433</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>434</v>
+        <v>324</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>435</v>
+        <v>325</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>436</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>437</v>
+        <v>327</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>438</v>
+        <v>328</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>446</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>449</v>
+        <v>542</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>451</v>
+        <v>337</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>452</v>
+        <v>293</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>454</v>
+        <v>532</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>457</v>
+        <v>543</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>458</v>
+        <v>342</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>460</v>
+        <v>343</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>461</v>
+        <v>345</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>463</v>
+        <v>544</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>384</v>
+        <v>286</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>467</v>
+        <v>348</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>468</v>
+        <v>545</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>469</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>470</v>
+        <v>350</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>432</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>474</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>476</v>
+        <v>355</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>477</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>478</v>
+        <v>357</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>480</v>
+        <v>359</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>459</v>
+        <v>343</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>481</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>482</v>
+        <v>361</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>485</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>483</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>488</v>
+        <v>367</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>491</v>
+        <v>368</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>492</v>
+        <v>369</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>493</v>
+        <v>370</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>495</v>
+        <v>371</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>496</v>
+        <v>372</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>506</v>
+        <v>379</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>508</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>509</v>
+        <v>381</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>511</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>514</v>
+        <v>386</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>515</v>
+        <v>387</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>517</v>
+        <v>388</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>520</v>
+        <v>389</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>523</v>
+        <v>391</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>524</v>
+        <v>392</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>400</v>
+        <v>532</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>525</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>526</v>
+        <v>394</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>143</v>
+        <v>474</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>527</v>
+        <v>395</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>529</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>532</v>
+        <v>399</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>534</v>
+        <v>401</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>535</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>536</v>
+        <v>403</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>529</v>
+        <v>397</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>537</v>
+        <v>404</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
-        <v>538</v>
+        <v>405</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>540</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>541</v>
+        <v>407</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>543</v>
+        <v>408</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>545</v>
+        <v>409</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>546</v>
+        <v>410</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>540</v>
+        <v>406</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>549</v>
+        <v>412</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>550</v>
+        <v>413</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>551</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>552</v>
+        <v>415</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>554</v>
+        <v>416</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>558</v>
+        <v>419</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>561</v>
+        <v>421</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>533</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>562</v>
+        <v>422</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>563</v>
+        <v>423</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>544</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>564</v>
+        <v>424</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>565</v>
+        <v>425</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>556</v>
+        <v>418</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>566</v>
+        <v>426</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>567</v>
+        <v>427</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>568</v>
+        <v>428</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>573</v>
+        <v>431</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>540</v>
+        <v>406</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>575</v>
+        <v>432</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>578</v>
+        <v>433</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>403</v>
+        <v>533</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>579</v>
+        <v>434</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>